--- a/biology/Histoire de la zoologie et de la botanique/Charles_de_Geer/Charles_de_Geer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_de_Geer/Charles_de_Geer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles de Geer ou Carl de Geer (10 février 1720, Finspång - 20 mai 1778, Lövstabruk) est un biologiste et homme politique suédois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De Geer, dont la famille avait des racines wallonnes, arrive à trois ans à Utrecht et où il fait ses premières études classiques. Il retourne en Suède notamment pour suivre les cours de Carl von Linné à l'université d'Uppsala. Bien que passionné par l'ensemble des sciences naturelles, il se spécialise dans l'étude des insectes et des arachnides.
 Il hérite d'un oncle sans enfant d'un manoir et d'importantes forges situées à Leufsta (Lövstabruk) dans l'Uplandia, ce qui le rend fort riche.
